--- a/biology/Zoologie/Ananteridae/Ananteridae.xlsx
+++ b/biology/Zoologie/Ananteridae/Ananteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ananteridae sont une famille de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces scorpions mesurent de 9 à 41 mm de long[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces scorpions mesurent de 9 à 41 mm de long.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par Pocock en 1900 en tant que sous-famille des Buthidae[2]. Elle a été élevée au rang de famille par Éric Ythier en 2024[1].
-Cette famille comprend 128 espèces dans 7 genres, ainsi que 5 espèces dans 3 genres fossiles[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par Pocock en 1900 en tant que sous-famille des Buthidae. Elle a été élevée au rang de famille par Éric Ythier en 2024.
+Cette famille comprend 128 espèces dans 7 genres, ainsi que 5 espèces dans 3 genres fossiles.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ananteris Thorell, 1891
 Ananteroides Borelli, 1911
